--- a/Data IOD.xlsx
+++ b/Data IOD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ce551f5721cc/Documents/RNN Jaya/RNN-Jaya/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{311D1E3A-CD10-4DD5-A8DB-F190D320C09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EAB1903-0E0A-42B1-AB46-AD1B17AE5F7F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FBC4A6-0057-4A11-AF44-5BD689E341F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A702909F-6F04-4ABF-928A-F401656C7870}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DF724BFF-19A9-4E30-921D-3FBBA0DD120E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1338,18 +1338,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AF10E6-7382-4817-9A58-018658E5AF3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536C9A93-69BE-434F-A59C-07A6210C77E0}">
   <dimension ref="A1:B846"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8122,5 +8120,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>